--- a/sentiment_analysis/surveys/polarity/gold_polarity_2.xlsx
+++ b/sentiment_analysis/surveys/polarity/gold_polarity_2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krusic\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krusic\Documents\GitHub\SentientSpectators\sentiment_analysis\surveys\polarity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE730355-3C37-4865-983E-1642757EDCD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C472AE-C1E0-49AC-9A72-9FD8B649223A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="0" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -448,6 +448,9 @@
     <t>Llega á tanto nuestra estoildéz, que pasa los limites de lo racional, pues nos dexamos regir de la vanidad, monstruo tan poco escrupuloso, que vive contento en las lobreguezes, siendo solamente éco que resuena, afan de desperdicios, tarea de inutilidades, tela de Arachne, y finalmente, carencia de un todo.</t>
   </si>
   <si>
+    <t>¿Què mayor locura, que sin embargo de ser yo un hombre docil, de buena pasta, y sin malicia, aseverar, que soy un satyrico, perverso, y mal humorado?</t>
+  </si>
+  <si>
     <t>Todas las Señoras estabamos muy contentas con èl, quien se hacia pagar muy bien por su especial havilidad, y bello gusto: encargandole nosotras, que por ningun motivo vistiesse de aquella manera â ninguna Muger humilde, porque le hariamos dàr de palos, y desterràr de la tierra.</t>
   </si>
   <si>
@@ -472,12 +475,18 @@
     <t>Mil veces quise matarme, pero mi desgracia quitò el valor â mi determinacion: y combatida por los fingidos halagos de al [sic] que me diò el ser, la obedecí ignorante, y engañada, llenandose desde aquel dia mi Casa de abundancia, ê infamia</t>
   </si>
   <si>
+    <t>pero un accidente peor para mí que una buena enfermedad me obliga à guardar Casa por algunos dias, y à no presentarme donde Gentes me vean la cara, hasta que à todas se les haya borrado de la imaginacion mi fisonomía.</t>
+  </si>
+  <si>
     <t>Sabe valerse, perdida enteramente la verguenza, de mil artificios, que el uso, y una larga experiencia le han enseñado, para aparentar su miseria.</t>
   </si>
   <si>
     <t>Pues, Amigo, sepa Vm. que todo se lo llevó el diablo, si Vm. no me vale;</t>
   </si>
   <si>
+    <t xml:space="preserve">Si tal vez sus expresiones son un poco atrevidas, y sus comparaciones odiosas, deben permitirse à un hombre, que no ha nacido con la obligacion de hablarnos segun nuestro gusto. </t>
+  </si>
+  <si>
     <t>Tal qual diamantillo tiene; pero lo demás son chispas, y todo ello de muy mal gusto.</t>
   </si>
   <si>
@@ -487,6 +496,9 @@
     <t>La epidemia, Señor, ha cundido tanto, que el infierno no se conoce, ni las gentes se entienden.</t>
   </si>
   <si>
+    <t>Es un cobarde, un vil, un indigno de los honores que goza, y de alternar con quien tenga el corazon bien puesto</t>
+  </si>
+  <si>
     <t>Pero en cambio de estos beneficios, ¡qué tributos de reconocimiento no adquirió aquel magnánimo corazon!</t>
   </si>
   <si>
@@ -499,15 +511,18 @@
     <t>¿Sabia vmd. acaso hasta que nos reveló el secreto dicho venerable Colector de Comedias, que Racine habia sido un imbecil, Cosme Damian, un hombre falto de juicio, y de talento crítico?</t>
   </si>
   <si>
-    <t>¿Què mayor locura, que sin embargo de ser yo un hombre docil, de buena pasta, y sin malicia, aseverar, que soy un satyrico, perverso, y mal humorado?</t>
-  </si>
-  <si>
     <t>¿qué juicio formaria su merced de un Médico que llamado á curar un Escrofuloso, Elephanciano ó Ethico, descuidase estos tres terribles males, y emplease solamente su charlataneria en medicarle un sabañon ó un uñero?</t>
   </si>
   <si>
     <t>Ellos están en la posesion (no sé si inmemorial) de divertir y entretener á la cazuela con su buen humor y gracias poëticas, y consiguientemente tienen á su favor todo Madrid.</t>
   </si>
   <si>
+    <t xml:space="preserve">pero decir como muchos, eso no vale nada, eso es un asco, y no probarlo, ya vé vmd. que son expresiones muy vagas, muy despreciables, y que todo hombre de juicio se rie de los que fallan por este estilo. </t>
+  </si>
+  <si>
+    <t>Homero era un famoso Astrólogo politico, que adivinando las funestas resultas de semejantes desordenes, queria con la moral de su obra curar males tan graves.</t>
+  </si>
+  <si>
     <t>Un malvado insulano con el fin de enriquecer el Fisco, propuso se confiscasen los bienes de cierto miserable que acababa de ser condenado á muerte.</t>
   </si>
   <si>
@@ -562,6 +577,9 @@
     <t>á todos los Actores los estimo con igualdad, y miro por sus intereses, adelantamientos, é instruccion, escribiendo apologías imparciales en defensa del Teatro, y asi en nombre de todos los Cómicos Españoles te doy ahora la agencia de los Coliseos de Madrid, con la precisa condicion de que has de repartir este papelito con la mayor brevedad para que se vea en el tribunal de los Literatos.</t>
   </si>
   <si>
+    <t xml:space="preserve">y revolviendo en mi memoria quáles serian, se apareció cerca de mí un mancebo de gallarda presencia que uniendo la hermosura con la seriedad presentaba el aspecto mas amable que pudiera figurar la imaginacion. </t>
+  </si>
+  <si>
     <t>Luego á la hora que no quiera creer lo falso, saldrá del error, ó lo evitará.</t>
   </si>
   <si>
@@ -616,37 +634,19 @@
     <t>aplaude la buena educacion Francesa;</t>
   </si>
   <si>
+    <t>Si vmd. ama mas las alabanzas que el mérito, aborrezca á lo ménos todo lo que es comun, y no tolere que ninguna persona tenga la osadía de alabarle en su presencia.</t>
+  </si>
+  <si>
     <t>Es gallardo jóven, tiene los ojos mas negros, y los dientes mas blancos que he visto en el mundo.</t>
   </si>
   <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>neutral</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>Si vmd. ama mas las alabanzas que el mérito, aborrezca á lo ménos todo lo que es comun, y no tolere que ninguna persona tenga la osadía de alabarle en su presencia.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">y revolviendo en mi memoria quáles serian, se apareció cerca de mí un mancebo de gallarda presencia que uniendo la hermosura con la seriedad presentaba el aspecto mas amable que pudiera figurar la imaginacion. </t>
-  </si>
-  <si>
-    <t>Homero era un famoso Astrólogo politico, que adivinando las funestas resultas de semejantes desordenes, queria con la moral de su obra curar males tan graves.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pero decir como muchos, eso no vale nada, eso es un asco, y no probarlo, ya vé vmd. que son expresiones muy vagas, muy despreciables, y que todo hombre de juicio se rie de los que fallan por este estilo. </t>
-  </si>
-  <si>
-    <t>pero un accidente peor para mí que una buena enfermedad me obliga à guardar Casa por algunos dias, y à no presentarme donde Gentes me vean la cara, hasta que à todas se les haya borrado de la imaginacion mi fisonomía.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Si tal vez sus expresiones son un poco atrevidas, y sus comparaciones odiosas, deben permitirse à un hombre, que no ha nacido con la obligacion de hablarnos segun nuestro gusto. </t>
-  </si>
-  <si>
-    <t>Es un cobarde, un vil, un indigno de los honores que goza, y de alternar con quien tenga el corazon bien puesto</t>
+    <t>NEG</t>
+  </si>
+  <si>
+    <t>NEU</t>
+  </si>
+  <si>
+    <t>POS</t>
   </si>
 </sst>
 </file>
@@ -1050,13 +1050,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="J88" sqref="J88"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1067,7 +1065,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1075,10 +1073,10 @@
         <v>106</v>
       </c>
       <c r="C2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1086,10 +1084,10 @@
         <v>106</v>
       </c>
       <c r="C3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1097,10 +1095,10 @@
         <v>107</v>
       </c>
       <c r="C4" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1108,10 +1106,10 @@
         <v>108</v>
       </c>
       <c r="C5" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1119,10 +1117,10 @@
         <v>109</v>
       </c>
       <c r="C6" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1130,10 +1128,10 @@
         <v>110</v>
       </c>
       <c r="C7" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1141,10 +1139,10 @@
         <v>111</v>
       </c>
       <c r="C8" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1152,10 +1150,10 @@
         <v>112</v>
       </c>
       <c r="C9" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1163,10 +1161,10 @@
         <v>113</v>
       </c>
       <c r="C10" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1174,10 +1172,10 @@
         <v>114</v>
       </c>
       <c r="C11" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1185,10 +1183,10 @@
         <v>115</v>
       </c>
       <c r="C12" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1196,10 +1194,10 @@
         <v>116</v>
       </c>
       <c r="C13" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1207,10 +1205,10 @@
         <v>117</v>
       </c>
       <c r="C14" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1218,10 +1216,10 @@
         <v>118</v>
       </c>
       <c r="C15" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1229,10 +1227,10 @@
         <v>119</v>
       </c>
       <c r="C16" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1240,10 +1238,10 @@
         <v>120</v>
       </c>
       <c r="C17" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1251,10 +1249,10 @@
         <v>121</v>
       </c>
       <c r="C18" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1262,10 +1260,10 @@
         <v>122</v>
       </c>
       <c r="C19" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1273,10 +1271,10 @@
         <v>123</v>
       </c>
       <c r="C20" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -1284,10 +1282,10 @@
         <v>124</v>
       </c>
       <c r="C21" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -1295,10 +1293,10 @@
         <v>125</v>
       </c>
       <c r="C22" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -1306,10 +1304,10 @@
         <v>126</v>
       </c>
       <c r="C23" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -1317,10 +1315,10 @@
         <v>127</v>
       </c>
       <c r="C24" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -1328,10 +1326,10 @@
         <v>128</v>
       </c>
       <c r="C25" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -1339,10 +1337,10 @@
         <v>129</v>
       </c>
       <c r="C26" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -1350,10 +1348,10 @@
         <v>130</v>
       </c>
       <c r="C27" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -1361,10 +1359,10 @@
         <v>131</v>
       </c>
       <c r="C28" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -1372,10 +1370,10 @@
         <v>132</v>
       </c>
       <c r="C29" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -1383,10 +1381,10 @@
         <v>133</v>
       </c>
       <c r="C30" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -1394,10 +1392,10 @@
         <v>134</v>
       </c>
       <c r="C31" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -1405,10 +1403,10 @@
         <v>135</v>
       </c>
       <c r="C32" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -1416,10 +1414,10 @@
         <v>136</v>
       </c>
       <c r="C33" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -1427,10 +1425,10 @@
         <v>134</v>
       </c>
       <c r="C34" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -1438,10 +1436,10 @@
         <v>137</v>
       </c>
       <c r="C35" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -1449,10 +1447,10 @@
         <v>138</v>
       </c>
       <c r="C36" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -1460,10 +1458,10 @@
         <v>139</v>
       </c>
       <c r="C37" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -1471,10 +1469,10 @@
         <v>140</v>
       </c>
       <c r="C38" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -1482,722 +1480,722 @@
         <v>141</v>
       </c>
       <c r="C39" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="C40" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C41" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C42" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C43" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C44" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C45" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C46" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C47" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C48" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>206</v>
+        <v>151</v>
       </c>
       <c r="C49" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C50" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C51" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>53</v>
       </c>
       <c r="B52" t="s">
+        <v>154</v>
+      </c>
+      <c r="C52" t="s">
         <v>207</v>
       </c>
-      <c r="C52" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C53" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C54" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C55" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>208</v>
+        <v>158</v>
       </c>
       <c r="C56" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C57" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C58" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C59" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C60" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="C61" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C62" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C63" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>205</v>
+        <v>165</v>
       </c>
       <c r="C64" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>204</v>
+        <v>166</v>
       </c>
       <c r="C65" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C66" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C67" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C68" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C69" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C70" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="C71" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C72" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C73" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C74" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C75" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C76" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C77" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>79</v>
       </c>
       <c r="B78" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C78" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>80</v>
       </c>
       <c r="B79" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C79" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>81</v>
       </c>
       <c r="B80" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C80" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>82</v>
       </c>
       <c r="B81" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="C81" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>83</v>
       </c>
       <c r="B82" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C82" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>84</v>
       </c>
       <c r="B83" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="C83" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>85</v>
       </c>
       <c r="B84" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="C84" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>86</v>
       </c>
       <c r="B85" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="C85" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>87</v>
       </c>
       <c r="B86" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="C86" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>88</v>
       </c>
       <c r="B87" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="C87" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>89</v>
       </c>
       <c r="B88" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="C88" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>90</v>
       </c>
       <c r="B89" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="C89" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>91</v>
       </c>
       <c r="B90" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="C90" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>92</v>
       </c>
       <c r="B91" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="C91" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>93</v>
       </c>
       <c r="B92" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="C92" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>94</v>
       </c>
       <c r="B93" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="C93" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>95</v>
       </c>
       <c r="B94" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="C94" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>96</v>
       </c>
       <c r="B95" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="C95" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>97</v>
       </c>
       <c r="B96" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="C96" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>98</v>
       </c>
       <c r="B97" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="C97" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>99</v>
       </c>
       <c r="B98" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="C98" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>100</v>
       </c>
       <c r="B99" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="C99" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>101</v>
       </c>
       <c r="B100" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="C100" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>102</v>
       </c>
       <c r="B101" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="C101" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>103</v>
       </c>
       <c r="B102" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="C102" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>104</v>
       </c>
       <c r="B103" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C103" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>105</v>
       </c>
       <c r="B104" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="C104" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
